--- a/Data/Selected_structures_config.xlsx
+++ b/Data/Selected_structures_config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks\Desktop\Indole_structure_generator\prediction_and_selection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks\Documents\GitHub\Indole_new_structures\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E5EBA4-34FF-4E4F-8C5F-7BC969DB8C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02DFD87F-67FC-44C7-94D7-4986EA35C6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,7 +348,7 @@
   <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
